--- a/Plan de Pruebas - Bruno Delgado.xlsx
+++ b/Plan de Pruebas - Bruno Delgado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>CP-XX</t>
   </si>
@@ -53,6 +53,9 @@
     <t>username: bruno, password: 3443</t>
   </si>
   <si>
+    <t>Le doy a crear cuenta e introduzco los datos correspondientes</t>
+  </si>
+  <si>
     <t>Nos redirige al login</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>Al tratar de registrar un usuario con un username que ya está insertado, nos envía a una página que nos avisa y nos da la opción de volver al registro</t>
+  </si>
+  <si>
+    <t>Le doy a crear cuenta e introduzco el mismo username que he creado en la prueba anterior</t>
   </si>
   <si>
     <t>Nos redirige a la página de aviso y podemos volver al registro pulsando el botón</t>
@@ -179,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -198,16 +204,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,13 +246,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -259,7 +278,7 @@
     <xdr:ext cx="3752850" cy="2066925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -287,7 +306,7 @@
     <xdr:ext cx="3752850" cy="2066925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -315,7 +334,7 @@
     <xdr:ext cx="4705350" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image29.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -343,7 +362,7 @@
     <xdr:ext cx="3381375" cy="2066925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -371,7 +390,7 @@
     <xdr:ext cx="3381375" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image16.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -399,7 +418,7 @@
     <xdr:ext cx="3429000" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -427,7 +446,7 @@
     <xdr:ext cx="3686175" cy="3057525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image18.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -455,7 +474,7 @@
     <xdr:ext cx="6686550" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image23.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -483,7 +502,7 @@
     <xdr:ext cx="5857875" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -511,7 +530,7 @@
     <xdr:ext cx="4724400" cy="2514600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -539,7 +558,7 @@
     <xdr:ext cx="4505325" cy="1628775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image19.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -595,7 +614,7 @@
     <xdr:ext cx="5448300" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image24.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -623,7 +642,7 @@
     <xdr:ext cx="5448300" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -651,7 +670,7 @@
     <xdr:ext cx="4591050" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -679,7 +698,7 @@
     <xdr:ext cx="5219700" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -707,7 +726,7 @@
     <xdr:ext cx="4972050" cy="971550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -735,7 +754,7 @@
     <xdr:ext cx="3771900" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -763,7 +782,7 @@
     <xdr:ext cx="3648075" cy="2257425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -791,7 +810,7 @@
     <xdr:ext cx="3381375" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image17.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -819,7 +838,7 @@
     <xdr:ext cx="4257675" cy="2066925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -847,7 +866,7 @@
     <xdr:ext cx="6743700" cy="3105150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image15.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -875,7 +894,7 @@
     <xdr:ext cx="1752600" cy="1457325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image26.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -903,7 +922,7 @@
     <xdr:ext cx="2228850" cy="2085975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image27.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -931,7 +950,7 @@
     <xdr:ext cx="895350" cy="742950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -959,7 +978,7 @@
     <xdr:ext cx="1838325" cy="866775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image22.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -987,7 +1006,7 @@
     <xdr:ext cx="7315200" cy="1714500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image30.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1015,7 +1034,7 @@
     <xdr:ext cx="1752600" cy="1457325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image26.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1043,7 +1062,7 @@
     <xdr:ext cx="895350" cy="742950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1071,7 +1090,7 @@
     <xdr:ext cx="4552950" cy="1619250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image25.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1099,7 +1118,7 @@
     <xdr:ext cx="4705350" cy="1990725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image20.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1127,7 +1146,7 @@
     <xdr:ext cx="4762500" cy="3267075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image21.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1421,15 +1440,17 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1472,192 +1493,194 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>46</v>
+      <c r="H33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="I34" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35">
-      <c r="H35" s="7"/>
+      <c r="H35" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
